--- a/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00003.xlsx
+++ b/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -356,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -595,17 +595,20 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -719,14 +722,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1244,7 +1247,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,10 +1266,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1331,7 +1334,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="25" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1882,7 +1885,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2222,28 +2225,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>67</v>
       </c>
@@ -2318,97 +2321,91 @@
         <v>-124.27265</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
-      <c r="K7" s="9">
-        <v>47.130783333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
-      <c r="K8" s="9">
-        <v>-124.27265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="3:6" s="9" customFormat="1">
+    <row r="17" spans="3:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -2432,22 +2429,22 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" style="52" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2479,7 +2476,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1">
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>70</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>70</v>
       </c>
@@ -2525,7 +2522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>70</v>
       </c>
@@ -2548,7 +2545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="7" customFormat="1">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>70</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1">
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -2580,7 +2577,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1">
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>69</v>
       </c>
@@ -2603,7 +2600,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>69</v>
       </c>
@@ -2624,7 +2621,7 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>69</v>
       </c>
@@ -2645,7 +2642,7 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>69</v>
       </c>
@@ -2666,7 +2663,7 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>69</v>
       </c>
@@ -2687,7 +2684,7 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>69</v>
       </c>
@@ -2708,7 +2705,7 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>69</v>
       </c>
@@ -2729,7 +2726,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>69</v>
       </c>
@@ -2750,7 +2747,7 @@
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
@@ -2759,7 +2756,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>71</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>71</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
@@ -2814,7 +2811,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>72</v>
       </c>
@@ -2837,7 +2834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>72</v>
       </c>
@@ -2860,7 +2857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>72</v>
       </c>
@@ -2883,7 +2880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
         <v>72</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>72</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>72</v>
       </c>
@@ -2952,7 +2949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>72</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -2984,7 +2981,7 @@
       <c r="F27" s="25"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>73</v>
       </c>
@@ -3005,7 +3002,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>73</v>
       </c>
@@ -3026,7 +3023,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>73</v>
       </c>
@@ -3047,7 +3044,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
@@ -3056,7 +3053,7 @@
       <c r="F31" s="25"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>74</v>
       </c>
@@ -3079,7 +3076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>74</v>
       </c>
@@ -3102,7 +3099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>74</v>
       </c>
@@ -3125,7 +3122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>74</v>
       </c>
@@ -3148,7 +3145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
         <v>74</v>
       </c>
@@ -3171,7 +3168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
         <v>74</v>
       </c>
@@ -3194,7 +3191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>74</v>
       </c>
@@ -3217,7 +3214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>74</v>
       </c>
@@ -3240,7 +3237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>74</v>
       </c>
@@ -3263,7 +3260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>74</v>
       </c>
@@ -3286,7 +3283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
@@ -3295,7 +3292,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>75</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>75</v>
       </c>
@@ -3341,7 +3338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
@@ -3350,7 +3347,7 @@
       <c r="F45" s="25"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>76</v>
       </c>
@@ -3371,7 +3368,7 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>76</v>
       </c>
@@ -3392,7 +3389,7 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>76</v>
       </c>
@@ -3413,7 +3410,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" s="13" customFormat="1">
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="24"/>
@@ -3422,7 +3419,7 @@
       <c r="F49" s="34"/>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>77</v>
       </c>
@@ -3439,16 +3436,16 @@
       <c r="F50" s="36"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1">
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D51" s="52"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1">
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D52" s="52"/>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1">
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D53" s="52"/>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1">
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D54" s="52"/>
     </row>
   </sheetData>
@@ -3471,9 +3468,9 @@
       <selection sqref="A1:AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4.6008E-2</v>
       </c>
@@ -3583,7 +3580,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -3693,7 +3690,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -3803,7 +3800,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.3878E-2</v>
       </c>
@@ -3913,7 +3910,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -4023,7 +4020,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4133,7 +4130,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4243,7 +4240,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4353,7 +4350,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4463,7 +4460,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.4787E-2</v>
       </c>
@@ -4683,7 +4680,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.1585E-2</v>
       </c>
@@ -4793,7 +4790,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -4903,7 +4900,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.7412E-2</v>
       </c>
@@ -5013,7 +5010,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5123,7 +5120,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.4527E-2</v>
       </c>
@@ -5233,7 +5230,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.379E-2</v>
       </c>
@@ -5343,7 +5340,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.2543E-2</v>
       </c>
@@ -5453,7 +5450,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.141E-2</v>
       </c>
@@ -5673,7 +5670,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -5783,7 +5780,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -5893,7 +5890,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.018E-2</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6113,7 +6110,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9.384E-3</v>
       </c>
@@ -6223,7 +6220,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.025E-3</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6443,7 +6440,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6553,7 +6550,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6663,7 +6660,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -6773,7 +6770,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -6993,7 +6990,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7103,7 +7100,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7213,7 +7210,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7323,7 +7320,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7433,7 +7430,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7653,7 +7650,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -7763,7 +7760,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -7983,7 +7980,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8093,7 +8090,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8203,7 +8200,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.421E-3</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8423,7 +8420,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8533,7 +8530,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8643,7 +8640,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-1.1E-5</v>
       </c>
@@ -8753,7 +8750,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.62E-4</v>
       </c>
@@ -8863,7 +8860,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -8973,7 +8970,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -9083,7 +9080,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.702E-3</v>
       </c>
@@ -9193,7 +9190,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9303,7 +9300,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9413,7 +9410,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9523,7 +9520,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9633,7 +9630,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -9743,7 +9740,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -9853,7 +9850,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -9963,7 +9960,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -10073,7 +10070,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.655E-3</v>
       </c>
@@ -10183,7 +10180,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10293,7 +10290,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10403,7 +10400,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.493E-3</v>
       </c>
@@ -10513,7 +10510,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.273E-3</v>
       </c>
@@ -10623,7 +10620,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -10733,7 +10730,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -10843,7 +10840,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8E-5</v>
       </c>
@@ -10953,7 +10950,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.28E-4</v>
       </c>
@@ -11063,7 +11060,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11173,7 +11170,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11283,7 +11280,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.165E-3</v>
       </c>
@@ -11393,7 +11390,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.469E-3</v>
       </c>
@@ -11503,7 +11500,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11613,7 +11610,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -11723,7 +11720,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -11833,7 +11830,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -11943,7 +11940,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.166E-3</v>
       </c>
@@ -12053,7 +12050,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12163,7 +12160,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12273,7 +12270,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.653E-3</v>
       </c>
@@ -12383,7 +12380,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12493,7 +12490,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12603,7 +12600,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.704E-3</v>
       </c>
@@ -12713,7 +12710,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.725E-3</v>
       </c>
@@ -12841,9 +12838,9 @@
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.11464299999999999</v>
       </c>
@@ -12953,7 +12950,7 @@
         <v>-5.0855999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.11143699999999999</v>
       </c>
@@ -13063,7 +13060,7 @@
         <v>-4.8311E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.10566</v>
       </c>
@@ -13173,7 +13170,7 @@
         <v>-4.7612000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.103315</v>
       </c>
@@ -13283,7 +13280,7 @@
         <v>-4.4401000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.100078</v>
       </c>
@@ -13393,7 +13390,7 @@
         <v>-4.3917999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9.7517999999999994E-2</v>
       </c>
@@ -13503,7 +13500,7 @@
         <v>-4.0932999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.4977000000000006E-2</v>
       </c>
@@ -13613,7 +13610,7 @@
         <v>-3.9729E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.2086000000000001E-2</v>
       </c>
@@ -13723,7 +13720,7 @@
         <v>-3.8157999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.8232000000000005E-2</v>
       </c>
@@ -13833,7 +13830,7 @@
         <v>-3.6015999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.4955000000000003E-2</v>
       </c>
@@ -13943,7 +13940,7 @@
         <v>-3.3876000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.2607E-2</v>
       </c>
@@ -14053,7 +14050,7 @@
         <v>-3.2259999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.9913999999999999E-2</v>
       </c>
@@ -14163,7 +14160,7 @@
         <v>-3.0206E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.8973000000000002E-2</v>
       </c>
@@ -14273,7 +14270,7 @@
         <v>-2.8332E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.6024999999999995E-2</v>
       </c>
@@ -14383,7 +14380,7 @@
         <v>-2.6426000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.4902999999999997E-2</v>
       </c>
@@ -14493,7 +14490,7 @@
         <v>-2.4596E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.3431999999999997E-2</v>
       </c>
@@ -14603,7 +14600,7 @@
         <v>-2.2771E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.2954000000000005E-2</v>
       </c>
@@ -14713,7 +14710,7 @@
         <v>-2.1378000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.2392999999999999E-2</v>
       </c>
@@ -14823,7 +14820,7 @@
         <v>-2.0163E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7.1642999999999998E-2</v>
       </c>
@@ -14933,7 +14930,7 @@
         <v>-1.9016999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7.0186999999999999E-2</v>
       </c>
@@ -15043,7 +15040,7 @@
         <v>-1.8008E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6.9302000000000002E-2</v>
       </c>
@@ -15153,7 +15150,7 @@
         <v>-1.7052000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6.8472000000000005E-2</v>
       </c>
@@ -15263,7 +15260,7 @@
         <v>-1.6406E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6.7325999999999997E-2</v>
       </c>
@@ -15373,7 +15370,7 @@
         <v>-1.5685000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6.6239999999999993E-2</v>
       </c>
@@ -15483,7 +15480,7 @@
         <v>-1.5491E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.5568000000000001E-2</v>
       </c>
@@ -15593,7 +15590,7 @@
         <v>-1.5266999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.4459000000000002E-2</v>
       </c>
@@ -15703,7 +15700,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.3698000000000005E-2</v>
       </c>
@@ -15813,7 +15810,7 @@
         <v>-1.5762000000000002E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.2205000000000003E-2</v>
       </c>
@@ -15923,7 +15920,7 @@
         <v>-1.5906E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.1772000000000001E-2</v>
       </c>
@@ -16033,7 +16030,7 @@
         <v>-1.6376000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.0983000000000002E-2</v>
       </c>
@@ -16143,7 +16140,7 @@
         <v>-1.6698000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.9484000000000002E-2</v>
       </c>
@@ -16253,7 +16250,7 @@
         <v>-1.7065E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.885E-2</v>
       </c>
@@ -16363,7 +16360,7 @@
         <v>-1.7538000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.8035000000000003E-2</v>
       </c>
@@ -16473,7 +16470,7 @@
         <v>-1.7956E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5.6728000000000001E-2</v>
       </c>
@@ -16583,7 +16580,7 @@
         <v>-1.8258E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.6006E-2</v>
       </c>
@@ -16693,7 +16690,7 @@
         <v>-1.8557000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.4544000000000002E-2</v>
       </c>
@@ -16803,7 +16800,7 @@
         <v>-1.8412999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.3428000000000003E-2</v>
       </c>
@@ -16913,7 +16910,7 @@
         <v>-1.8096000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.2255000000000003E-2</v>
       </c>
@@ -17023,7 +17020,7 @@
         <v>-1.7731E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.1347999999999998E-2</v>
       </c>
@@ -17133,7 +17130,7 @@
         <v>-1.7405E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5.0941E-2</v>
       </c>
@@ -17243,7 +17240,7 @@
         <v>-1.6965000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.0456000000000001E-2</v>
       </c>
@@ -17353,7 +17350,7 @@
         <v>-1.6688000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4.9521000000000003E-2</v>
       </c>
@@ -17463,7 +17460,7 @@
         <v>-1.6479000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.2349E-2</v>
       </c>
@@ -17573,7 +17570,7 @@
         <v>-1.9583E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.2712000000000002E-2</v>
       </c>
@@ -17683,7 +17680,7 @@
         <v>-1.9982E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.2965999999999999E-2</v>
       </c>
@@ -17793,7 +17790,7 @@
         <v>-2.0264000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.373E-2</v>
       </c>
@@ -17903,7 +17900,7 @@
         <v>-2.0386000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.4421999999999998E-2</v>
       </c>
@@ -18013,7 +18010,7 @@
         <v>-2.0745E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.5028000000000001E-2</v>
       </c>
@@ -18123,7 +18120,7 @@
         <v>-2.0560999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.5216000000000001E-2</v>
       </c>
@@ -18233,7 +18230,7 @@
         <v>-2.0379999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.5146000000000001E-2</v>
       </c>
@@ -18343,7 +18340,7 @@
         <v>-1.9935000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.4336000000000002E-2</v>
       </c>
@@ -18453,7 +18450,7 @@
         <v>-1.9289000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.3359999999999998E-2</v>
       </c>
@@ -18563,7 +18560,7 @@
         <v>-1.8554999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.2211E-2</v>
       </c>
@@ -18673,7 +18670,7 @@
         <v>-1.8151E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.0758999999999999E-2</v>
       </c>
@@ -18783,7 +18780,7 @@
         <v>-1.7795999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4.9699E-2</v>
       </c>
@@ -18893,7 +18890,7 @@
         <v>-1.7281000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.9028000000000002E-2</v>
       </c>
@@ -19003,7 +19000,7 @@
         <v>-1.6966999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.8057000000000002E-2</v>
       </c>
@@ -19113,7 +19110,7 @@
         <v>-1.6674999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.7393999999999999E-2</v>
       </c>
@@ -19223,7 +19220,7 @@
         <v>-1.6372000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.6948999999999998E-2</v>
       </c>
@@ -19333,7 +19330,7 @@
         <v>-1.6211E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.6358000000000003E-2</v>
       </c>
@@ -19443,7 +19440,7 @@
         <v>-1.5982E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.6005999999999998E-2</v>
       </c>
@@ -19553,7 +19550,7 @@
         <v>-1.5730999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.5657000000000003E-2</v>
       </c>
@@ -19663,7 +19660,7 @@
         <v>-1.5650000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.4887999999999997E-2</v>
       </c>
@@ -19773,7 +19770,7 @@
         <v>-1.5442000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.4344000000000001E-2</v>
       </c>
@@ -19883,7 +19880,7 @@
         <v>-1.5474999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.3698000000000001E-2</v>
       </c>
@@ -19993,7 +19990,7 @@
         <v>-1.5446E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.2992000000000002E-2</v>
       </c>
@@ -20103,7 +20100,7 @@
         <v>-1.5382E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.2221000000000002E-2</v>
       </c>
@@ -20213,7 +20210,7 @@
         <v>-1.5272000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.2258999999999998E-2</v>
       </c>
@@ -20323,7 +20320,7 @@
         <v>-1.5022000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4.1813000000000003E-2</v>
       </c>
@@ -20433,7 +20430,7 @@
         <v>-1.4598E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.1190999999999998E-2</v>
       </c>
@@ -20543,7 +20540,7 @@
         <v>-1.439E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4.1315999999999999E-2</v>
       </c>
@@ -20653,7 +20650,7 @@
         <v>-1.4239E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4.0593999999999998E-2</v>
       </c>
@@ -20763,7 +20760,7 @@
         <v>-1.4161E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.0902000000000001E-2</v>
       </c>
@@ -20873,7 +20870,7 @@
         <v>-1.4272999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.0507000000000001E-2</v>
       </c>
@@ -20983,7 +20980,7 @@
         <v>-1.4279999999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4.1043999999999997E-2</v>
       </c>
@@ -21093,7 +21090,7 @@
         <v>-1.4352999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.0555000000000001E-2</v>
       </c>
@@ -21203,7 +21200,7 @@
         <v>-1.4429000000000001E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.1255E-2</v>
       </c>
@@ -21313,7 +21310,7 @@
         <v>-1.4637000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.0912999999999998E-2</v>
       </c>
@@ -21423,7 +21420,7 @@
         <v>-1.4713E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.1392999999999999E-2</v>
       </c>
@@ -21533,7 +21530,7 @@
         <v>-1.5044E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.0951000000000001E-2</v>
       </c>
@@ -21643,7 +21640,7 @@
         <v>-1.5200999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.0934999999999999E-2</v>
       </c>
@@ -21753,7 +21750,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.0092999999999997E-2</v>
       </c>
@@ -21863,7 +21860,7 @@
         <v>-1.5492000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3.9625E-2</v>
       </c>
@@ -21973,7 +21970,7 @@
         <v>-1.5389E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.8066000000000003E-2</v>
       </c>
@@ -22083,7 +22080,7 @@
         <v>-1.4987E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.8646E-2</v>
       </c>

--- a/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00003.xlsx
+++ b/CE06ISSP/Omaha_Cal_Info_CE06ISSP_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE06ISSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
+    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2225,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,13 +2429,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
